--- a/trunk/Fabien/Resultats DRAGON.xlsx
+++ b/trunk/Fabien/Resultats DRAGON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="21315" windowHeight="9210"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="21315" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -1997,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102000896"/>
-        <c:axId val="95737344"/>
+        <c:axId val="76004736"/>
+        <c:axId val="76006912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102000896"/>
+        <c:axId val="76004736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2038,12 +2038,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95737344"/>
+        <c:crossAx val="76006912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95737344"/>
+        <c:axId val="76006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102000896"/>
+        <c:crossAx val="76004736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5705,11 +5705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104212736"/>
-        <c:axId val="104223104"/>
+        <c:axId val="86984960"/>
+        <c:axId val="87011712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104212736"/>
+        <c:axId val="86984960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5735,12 +5735,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104223104"/>
+        <c:crossAx val="87011712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104223104"/>
+        <c:axId val="87011712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5768,7 +5768,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104212736"/>
+        <c:crossAx val="86984960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9405,11 +9405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104722816"/>
-        <c:axId val="104724736"/>
+        <c:axId val="77664640"/>
+        <c:axId val="77666560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104722816"/>
+        <c:axId val="77664640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9435,12 +9435,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104724736"/>
+        <c:crossAx val="77666560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104724736"/>
+        <c:axId val="77666560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9468,7 +9468,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104722816"/>
+        <c:crossAx val="77664640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13117,11 +13117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117471488"/>
-        <c:axId val="118690176"/>
+        <c:axId val="77703424"/>
+        <c:axId val="77709696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117471488"/>
+        <c:axId val="77703424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13147,12 +13147,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118690176"/>
+        <c:crossAx val="77709696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118690176"/>
+        <c:axId val="77709696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13180,7 +13180,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117471488"/>
+        <c:crossAx val="77703424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13211,16 +13211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>260847</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>98455</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>697875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>103963</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102095</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13629,7 +13629,7 @@
   <dimension ref="A1:S593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
